--- a/templates/ThinkCell/timeline_v2_POC.xlsx
+++ b/templates/ThinkCell/timeline_v2_POC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/ThinkCell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E8FDD-5A79-FB44-B7E6-F97DCE4B5665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAA6A33-5654-E149-BA4B-657738DE5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Start</t>
   </si>
@@ -56,18 +56,12 @@
     <t>Functional Workshop</t>
   </si>
   <si>
-    <t>Technical Workshop</t>
-  </si>
-  <si>
     <t>User Training</t>
   </si>
   <si>
     <t>Application Implement (Studio Config.)</t>
   </si>
   <si>
-    <t>Testing (FT &amp; SIT &amp; UAT)</t>
-  </si>
-  <si>
     <t>Project Management</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>C1</t>
-  </si>
-  <si>
-    <t>D1</t>
   </si>
   <si>
     <t>E1</t>
@@ -278,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,41 +298,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -685,8 +647,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,17 +673,14 @@
         <f>C35</f>
         <v>45488</v>
       </c>
-      <c r="D1" s="1">
-        <f>C36</f>
-        <v>45493</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1">
         <f>C37</f>
         <v>45489</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">C31</f>
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="G1" s="1">
         <f>C38</f>
@@ -739,7 +698,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>B44</f>
@@ -756,7 +715,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <f>B45</f>
@@ -770,7 +729,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <f>B46</f>
@@ -787,7 +746,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B11" si="1">B47</f>
@@ -804,7 +763,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -818,7 +777,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -837,7 +796,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -854,7 +813,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -872,7 +831,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -899,7 +858,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,37 +867,37 @@
       </c>
       <c r="C31" s="12">
         <f ca="1">TODAY()</f>
-        <v>45481</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="13"/>
       <c r="D32" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" s="8">
         <f>B45</f>
         <v>45474</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>4</v>
@@ -947,12 +906,12 @@
         <v>45483</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>5</v>
@@ -961,95 +920,87 @@
         <v>45488</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7">
-        <v>45493</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8">
         <f>B45+15</f>
         <v>45489</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8">
         <f>C37+15</f>
         <v>45504</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C39" s="8">
         <f>C38+15</f>
         <v>45519</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="7">
         <v>45474</v>
@@ -1058,17 +1009,17 @@
         <v>45539</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="7">
         <v>45474</v>
@@ -1078,7 +1029,7 @@
         <v>45542</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="10"/>
@@ -1087,7 +1038,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="7">
         <v>45474</v>
@@ -1096,17 +1047,17 @@
         <v>45493</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" s="7">
         <v>45493</v>
@@ -1115,17 +1066,17 @@
         <v>45503</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="7">
         <v>45503</v>
@@ -1140,7 +1091,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="7">
         <v>45503</v>
@@ -1164,7 +1115,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B51" s="7">
         <v>45518</v>
@@ -1173,15 +1124,15 @@
         <v>45534</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" s="7">
         <v>45539</v>
@@ -1190,17 +1141,17 @@
         <v>45542</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53" s="8">
         <f>C52</f>
@@ -1217,12 +1168,12 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
